--- a/guestLists/2.xlsx
+++ b/guestLists/2.xlsx
@@ -551,7 +551,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -645,7 +645,7 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
@@ -739,7 +739,7 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
@@ -833,7 +833,7 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E9" t="s">
         <v>15</v>
@@ -927,7 +927,7 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E11" t="s">
         <v>15</v>
@@ -1021,7 +1021,7 @@
         <v>2</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E13" t="s">
         <v>15</v>
@@ -1115,7 +1115,7 @@
         <v>2</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E15" t="s">
         <v>15</v>
@@ -1209,7 +1209,7 @@
         <v>2</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E17" t="s">
         <v>15</v>
@@ -1303,7 +1303,7 @@
         <v>2</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E19" t="s">
         <v>15</v>
@@ -1397,7 +1397,7 @@
         <v>2</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E21" t="s">
         <v>15</v>
